--- a/src/main/webapp/content/templates/report-stock-out-check-result.xlsx
+++ b/src/main/webapp/content/templates/report-stock-out-check-result.xlsx
@@ -1,33 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhuyu/IdeaProjects/nccd/BioBank/src/main/webapp/content/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\application\BioBank\src\main\webapp\content\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16680"/>
   </bookViews>
   <sheets>
     <sheet name="核对结果" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,13 +98,17 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一维编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -676,26 +680,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:J6"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="3" customWidth="1"/>
-    <col min="3" max="5" width="5.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.1640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="20.1640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="48.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="3" customWidth="1"/>
+    <col min="4" max="6" width="5.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="17.125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="4" customWidth="1"/>
+    <col min="11" max="11" width="48.125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
@@ -706,10 +711,11 @@
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="17"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="17"/>
     </row>
-    <row r="2" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -718,10 +724,11 @@
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="19"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="19"/>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -730,10 +737,11 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="21"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="21"/>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -743,79 +751,84 @@
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
-      <c r="J4" s="9"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="K5" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A1:H3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A1:I3"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
